--- a/Code/Results/Cases/Case_3_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.28531709365527</v>
+        <v>16.579067386262</v>
       </c>
       <c r="C2">
-        <v>14.17492692502572</v>
+        <v>10.18873005904503</v>
       </c>
       <c r="D2">
-        <v>3.289336811646745</v>
+        <v>4.691249409614826</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.9204497466714</v>
+        <v>26.18503826315785</v>
       </c>
       <c r="G2">
-        <v>33.75027063678044</v>
+        <v>32.59626513152126</v>
       </c>
       <c r="H2">
-        <v>10.28939392659177</v>
+        <v>14.79338156589239</v>
       </c>
       <c r="I2">
-        <v>15.48720540333991</v>
+        <v>22.52923164887649</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.109352963839477</v>
+        <v>10.67052432394813</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.26176715300241</v>
+        <v>17.20063336986486</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.68341031172492</v>
+        <v>16.01564520329605</v>
       </c>
       <c r="C3">
-        <v>13.39729075185805</v>
+        <v>9.842143837713504</v>
       </c>
       <c r="D3">
-        <v>3.294413346005714</v>
+        <v>4.691937392981539</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.85018576416677</v>
+        <v>26.05486253810532</v>
       </c>
       <c r="G3">
-        <v>32.00600540469629</v>
+        <v>32.30085534803344</v>
       </c>
       <c r="H3">
-        <v>10.09598349209007</v>
+        <v>14.81397825927603</v>
       </c>
       <c r="I3">
-        <v>15.31674393092247</v>
+        <v>22.5933391259103</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.811635623493353</v>
+        <v>10.64414220510856</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.48497558115182</v>
+        <v>17.26545740299296</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.64376461740416</v>
+        <v>15.66260863826682</v>
       </c>
       <c r="C4">
-        <v>12.89748714817918</v>
+        <v>9.621098179482944</v>
       </c>
       <c r="D4">
-        <v>3.297818069612703</v>
+        <v>4.692517565558451</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.19513699743315</v>
+        <v>25.98378304150948</v>
       </c>
       <c r="G4">
-        <v>30.93030418914058</v>
+        <v>32.13187000479413</v>
       </c>
       <c r="H4">
-        <v>9.985935138472032</v>
+        <v>14.83024514762112</v>
       </c>
       <c r="I4">
-        <v>15.23024048094195</v>
+        <v>22.63879947698332</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.628665536656571</v>
+        <v>10.63017164491799</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.62483759441964</v>
+        <v>17.30713762281366</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.20588599029535</v>
+        <v>15.51719350816915</v>
       </c>
       <c r="C5">
-        <v>12.68826373377482</v>
+        <v>9.529027829678416</v>
       </c>
       <c r="D5">
-        <v>3.299278536597684</v>
+        <v>4.692793921690373</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.92908203012687</v>
+        <v>25.95706519014462</v>
       </c>
       <c r="G5">
-        <v>30.49133815588352</v>
+        <v>32.06620014351142</v>
       </c>
       <c r="H5">
-        <v>9.943250885019898</v>
+        <v>14.83778195259861</v>
       </c>
       <c r="I5">
-        <v>15.19938641299881</v>
+        <v>22.65885150908445</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.554158182965924</v>
+        <v>10.62504262546203</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.68256711626941</v>
+        <v>17.32459636356965</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.13231473621556</v>
+        <v>15.49296104485675</v>
       </c>
       <c r="C6">
-        <v>12.65318958821057</v>
+        <v>9.513621777747391</v>
       </c>
       <c r="D6">
-        <v>3.299525478807629</v>
+        <v>4.692842229925111</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.88496830153463</v>
+        <v>25.95276504134843</v>
       </c>
       <c r="G6">
-        <v>30.41843008173615</v>
+        <v>32.05549061618748</v>
       </c>
       <c r="H6">
-        <v>9.936292795177151</v>
+        <v>14.83908819046463</v>
       </c>
       <c r="I6">
-        <v>15.19452349201223</v>
+        <v>22.66227312825355</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.541792596260774</v>
+        <v>10.62422512649681</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.69219821900398</v>
+        <v>17.32752402872409</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.63791693826834</v>
+        <v>15.6606534710065</v>
       </c>
       <c r="C7">
-        <v>12.8946878522127</v>
+        <v>9.619864442249963</v>
       </c>
       <c r="D7">
-        <v>3.297837469334633</v>
+        <v>4.692521130578217</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.1915448130432</v>
+        <v>25.98341358800148</v>
       </c>
       <c r="G7">
-        <v>30.92438577435399</v>
+        <v>32.1309713357448</v>
       </c>
       <c r="H7">
-        <v>9.985350774053234</v>
+        <v>14.83034311904924</v>
       </c>
       <c r="I7">
-        <v>15.22980680233152</v>
+        <v>22.6390637340317</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.627660348910827</v>
+        <v>10.63010018452916</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.62561314458882</v>
+        <v>17.3073711575149</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.74454576504577</v>
+        <v>16.38640570702853</v>
       </c>
       <c r="C8">
-        <v>13.91146525191655</v>
+        <v>10.07098252542673</v>
       </c>
       <c r="D8">
-        <v>3.291027829099011</v>
+        <v>4.691454042899666</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.55118693072114</v>
+        <v>26.13833176893217</v>
       </c>
       <c r="G8">
-        <v>33.1501426960092</v>
+        <v>32.4918825247119</v>
       </c>
       <c r="H8">
-        <v>10.22088396829494</v>
+        <v>14.7997304938801</v>
       </c>
       <c r="I8">
-        <v>15.42456243640571</v>
+        <v>22.55006622525195</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.006790879721832</v>
+        <v>10.66096775437101</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.33816303007285</v>
+        <v>17.22259580626435</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.43618708834053</v>
+        <v>17.74406074786492</v>
       </c>
       <c r="C9">
-        <v>15.72645514240489</v>
+        <v>10.88717231303919</v>
       </c>
       <c r="D9">
-        <v>3.279938480079144</v>
+        <v>4.690601853364161</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.22091545099544</v>
+        <v>26.51116305461703</v>
       </c>
       <c r="G9">
-        <v>37.45723523127297</v>
+        <v>33.29429532275172</v>
       </c>
       <c r="H9">
-        <v>10.75284761517151</v>
+        <v>14.76852300151666</v>
       </c>
       <c r="I9">
-        <v>15.95756292009874</v>
+        <v>22.42422048515957</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.745157784080805</v>
+        <v>10.73898834357076</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.79546216026083</v>
+        <v>17.07118482948501</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.88841147916367</v>
+        <v>18.6905645565574</v>
       </c>
       <c r="C10">
-        <v>16.95005467818885</v>
+        <v>11.44154896410685</v>
       </c>
       <c r="D10">
-        <v>3.273166425515581</v>
+        <v>4.690717183824213</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.17068509690339</v>
+        <v>26.82533877005786</v>
       </c>
       <c r="G10">
-        <v>40.56689022455443</v>
+        <v>33.93610647365009</v>
       </c>
       <c r="H10">
-        <v>11.18758127462986</v>
+        <v>14.76327967339237</v>
       </c>
       <c r="I10">
-        <v>16.44999507444565</v>
+        <v>22.36181589656046</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.280322754357748</v>
+        <v>10.80668472958476</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.40760687696124</v>
+        <v>16.96889006112207</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.94935755349025</v>
+        <v>19.10814363129902</v>
       </c>
       <c r="C11">
-        <v>17.48303994738014</v>
+        <v>11.68331209941453</v>
       </c>
       <c r="D11">
-        <v>3.270390177986709</v>
+        <v>4.690927580117821</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.0533601991017</v>
+        <v>26.97654495538608</v>
       </c>
       <c r="G11">
-        <v>41.96754977784353</v>
+        <v>34.23816607066667</v>
       </c>
       <c r="H11">
-        <v>11.39511769705119</v>
+        <v>14.76475100661156</v>
       </c>
       <c r="I11">
-        <v>16.6975672406837</v>
+        <v>22.34002548104129</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.521554531943831</v>
+        <v>10.83966254058994</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.23307434639047</v>
+        <v>16.92427593401417</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.34342035030063</v>
+        <v>19.26426409299292</v>
       </c>
       <c r="C12">
-        <v>17.68150422986734</v>
+        <v>11.7733201068988</v>
       </c>
       <c r="D12">
-        <v>3.269383735865625</v>
+        <v>4.69102970481325</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.38691458974175</v>
+        <v>27.03495092990875</v>
       </c>
       <c r="G12">
-        <v>42.49588751692823</v>
+        <v>34.35388819800219</v>
       </c>
       <c r="H12">
-        <v>11.47513236488536</v>
+        <v>14.7658633851202</v>
       </c>
       <c r="I12">
-        <v>16.79482900566325</v>
+        <v>22.33272804118275</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.612547014702885</v>
+        <v>10.85245734662993</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.16721889348476</v>
+        <v>16.90765636064327</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.25889152164578</v>
+        <v>19.23073209924918</v>
       </c>
       <c r="C13">
-        <v>17.63891039977582</v>
+        <v>11.7540045009748</v>
       </c>
       <c r="D13">
-        <v>3.269598472888529</v>
+        <v>4.691006715949757</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.31510927532186</v>
+        <v>27.0223218535539</v>
       </c>
       <c r="G13">
-        <v>42.38219214893685</v>
+        <v>34.32890765554713</v>
       </c>
       <c r="H13">
-        <v>11.45783602840319</v>
+        <v>14.76559911515137</v>
       </c>
       <c r="I13">
-        <v>16.77372384869351</v>
+        <v>22.33425716030084</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.592966488437021</v>
+        <v>10.84968822642921</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.18139215646417</v>
+        <v>16.91122348064615</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.98193062475293</v>
+        <v>19.12102873387341</v>
       </c>
       <c r="C14">
-        <v>17.49943493402149</v>
+        <v>11.69074825274226</v>
       </c>
       <c r="D14">
-        <v>3.270306470152858</v>
+        <v>4.690935533474307</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.08081611122293</v>
+        <v>26.98132731472926</v>
       </c>
       <c r="G14">
-        <v>42.01105775829591</v>
+        <v>34.24766042692101</v>
       </c>
       <c r="H14">
-        <v>11.401671861239</v>
+        <v>14.76483139304711</v>
       </c>
       <c r="I14">
-        <v>16.7054979570857</v>
+        <v>22.33940596525801</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.529047859424253</v>
+        <v>10.84070906948055</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.22765186650594</v>
+        <v>16.9229031311529</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.81128678788809</v>
+        <v>19.05356693342136</v>
       </c>
       <c r="C15">
-        <v>17.41356511018862</v>
+        <v>11.65179991630386</v>
       </c>
       <c r="D15">
-        <v>3.270746022710479</v>
+        <v>4.690894848462826</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.93721282074612</v>
+        <v>26.95636505804449</v>
       </c>
       <c r="G15">
-        <v>41.78345862484596</v>
+        <v>34.19806509183933</v>
       </c>
       <c r="H15">
-        <v>11.36745594138025</v>
+        <v>14.76443345888852</v>
       </c>
       <c r="I15">
-        <v>16.66416851935844</v>
+        <v>22.34268416255673</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.489848488444391</v>
+        <v>10.83524881863503</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.25601688973493</v>
+        <v>16.93009300666969</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.81799079473661</v>
+        <v>18.66300106279264</v>
       </c>
       <c r="C16">
-        <v>16.91474971595186</v>
+        <v>11.42553555500378</v>
       </c>
       <c r="D16">
-        <v>3.273354066660846</v>
+        <v>4.690706589798068</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.11290590303451</v>
+        <v>26.81562012329722</v>
       </c>
       <c r="G16">
-        <v>40.47506633202307</v>
+        <v>33.91655972485922</v>
       </c>
       <c r="H16">
-        <v>11.1742165416159</v>
+        <v>14.76326118686973</v>
       </c>
       <c r="I16">
-        <v>16.43430044170226</v>
+        <v>22.3633731846789</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.264509537682008</v>
+        <v>10.80457287949266</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.41904813768572</v>
+        <v>16.97184422813099</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.19476276437896</v>
+        <v>18.4199697077158</v>
       </c>
       <c r="C17">
-        <v>16.60270773428442</v>
+        <v>11.2840268184839</v>
       </c>
       <c r="D17">
-        <v>3.275032598216792</v>
+        <v>4.690631364922866</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.6060484285866</v>
+        <v>26.73136945566542</v>
       </c>
       <c r="G17">
-        <v>39.66876978617418</v>
+        <v>33.74637163897638</v>
       </c>
       <c r="H17">
-        <v>11.05818650000245</v>
+        <v>14.76353038359522</v>
       </c>
       <c r="I17">
-        <v>16.29940814470066</v>
+        <v>22.37775903907767</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.125672425241438</v>
+        <v>10.78630831366932</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.519524148409</v>
+        <v>16.99794814454604</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.83115106956816</v>
+        <v>18.27896904236733</v>
       </c>
       <c r="C18">
-        <v>16.42100174040101</v>
+        <v>11.20165562840855</v>
       </c>
       <c r="D18">
-        <v>3.276026602390123</v>
+        <v>4.690602978107441</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.31411527568394</v>
+        <v>26.68369344462</v>
       </c>
       <c r="G18">
-        <v>39.20369488644415</v>
+        <v>33.64944126100711</v>
       </c>
       <c r="H18">
-        <v>10.9923677072207</v>
+        <v>14.76404820209205</v>
       </c>
       <c r="I18">
-        <v>16.22403252414748</v>
+        <v>22.38665412066067</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.045609733366419</v>
+        <v>10.77600888413874</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.57749694344486</v>
+        <v>17.01314324907522</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.7071497724954</v>
+        <v>18.23102441461011</v>
       </c>
       <c r="C19">
-        <v>16.35909583344188</v>
+        <v>11.17359940960717</v>
       </c>
       <c r="D19">
-        <v>3.276368034830981</v>
+        <v>4.690595930487219</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.21520600316385</v>
+        <v>26.66768690125643</v>
       </c>
       <c r="G19">
-        <v>39.04600602895127</v>
+        <v>33.61679012160892</v>
       </c>
       <c r="H19">
-        <v>10.9702398356042</v>
+        <v>14.76428584284612</v>
       </c>
       <c r="I19">
-        <v>16.198887507997</v>
+        <v>22.38977228027185</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.01846764933355</v>
+        <v>10.77255723754317</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.59715785316423</v>
+        <v>17.01831914687291</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.26163810155779</v>
+        <v>18.44596767028886</v>
       </c>
       <c r="C20">
-        <v>16.63615550047896</v>
+        <v>11.29919233069961</v>
       </c>
       <c r="D20">
-        <v>3.27485095382594</v>
+        <v>4.690637834522581</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.66004664680127</v>
+        <v>26.7402573824247</v>
       </c>
       <c r="G20">
-        <v>39.75473818123587</v>
+        <v>33.76439018465602</v>
       </c>
       <c r="H20">
-        <v>11.07044289377765</v>
+        <v>14.7634641536421</v>
       </c>
       <c r="I20">
-        <v>16.31353793537937</v>
+        <v>22.37616335782589</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.140473638430176</v>
+        <v>10.78823135079677</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.50880977253981</v>
+        <v>16.99515063314381</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.06348829812709</v>
+        <v>19.15330679064618</v>
       </c>
       <c r="C21">
-        <v>17.54049326515478</v>
+        <v>11.70937032415984</v>
       </c>
       <c r="D21">
-        <v>3.270097285329642</v>
+        <v>4.690955834192908</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.14965291959723</v>
+        <v>26.99333762660835</v>
       </c>
       <c r="G21">
-        <v>42.12012487418346</v>
+        <v>34.2714892892786</v>
       </c>
       <c r="H21">
-        <v>11.41812978147623</v>
+        <v>14.76504182009383</v>
       </c>
       <c r="I21">
-        <v>16.72544129168079</v>
+        <v>22.33786770149807</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.547832230533796</v>
+        <v>10.84333819645577</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.21405816636699</v>
+        <v>16.91946508622625</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.19633149981964</v>
+        <v>19.60383813347481</v>
       </c>
       <c r="C22">
-        <v>18.11193830844036</v>
+        <v>11.96843865739739</v>
       </c>
       <c r="D22">
-        <v>3.267252883301404</v>
+        <v>4.69129441566892</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.11914626162055</v>
+        <v>27.16540631893333</v>
       </c>
       <c r="G22">
-        <v>43.65406385119493</v>
+        <v>34.61065687839897</v>
       </c>
       <c r="H22">
-        <v>11.65368291681324</v>
+        <v>14.76930915128046</v>
       </c>
       <c r="I22">
-        <v>17.01516684112035</v>
+        <v>22.31840275742044</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.811976747212354</v>
+        <v>10.88113855054364</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.02277910331345</v>
+        <v>16.87160152333675</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.59575451081522</v>
+        <v>19.36449866477936</v>
       </c>
       <c r="C23">
-        <v>17.80872523778878</v>
+        <v>11.83100596563115</v>
       </c>
       <c r="D23">
-        <v>3.268746483036199</v>
+        <v>4.691101829454251</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.60209151747246</v>
+        <v>27.07297529107569</v>
       </c>
       <c r="G23">
-        <v>42.83646270393525</v>
+        <v>34.42896569793659</v>
       </c>
       <c r="H23">
-        <v>11.52719472099664</v>
+        <v>14.76673537327058</v>
       </c>
       <c r="I23">
-        <v>16.85861724535999</v>
+        <v>22.32828085445833</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.671198063414153</v>
+        <v>10.86080290626393</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.12475698590001</v>
+        <v>16.8970011134452</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.23142031139646</v>
+        <v>18.43421796347139</v>
       </c>
       <c r="C24">
-        <v>16.62104095943068</v>
+        <v>11.29233916380678</v>
       </c>
       <c r="D24">
-        <v>3.274932985021397</v>
+        <v>4.690634863279232</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.63563570903785</v>
+        <v>26.73623677743236</v>
       </c>
       <c r="G24">
-        <v>39.7158766121228</v>
+        <v>33.75624114750281</v>
       </c>
       <c r="H24">
-        <v>11.06489901231997</v>
+        <v>14.76349296530075</v>
       </c>
       <c r="I24">
-        <v>16.30714308938085</v>
+        <v>22.37688282047963</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.13378276500981</v>
+        <v>10.78736131874647</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.51365309179766</v>
+        <v>16.99641480349179</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.48375554391459</v>
+        <v>17.38500817758171</v>
       </c>
       <c r="C25">
-        <v>15.25475869546039</v>
+        <v>10.67409474020449</v>
       </c>
       <c r="D25">
-        <v>3.282697665462396</v>
+        <v>4.690701133481418</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.49993924072551</v>
+        <v>26.4030863295341</v>
       </c>
       <c r="G25">
-        <v>36.30062727127934</v>
+        <v>33.06762456633503</v>
       </c>
       <c r="H25">
-        <v>10.60130376072089</v>
+        <v>14.77386652094835</v>
       </c>
       <c r="I25">
-        <v>15.79625297469502</v>
+        <v>22.45301311293609</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.546435025182204</v>
+        <v>10.71603694442111</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.94022370829285</v>
+        <v>17.11056748786224</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.579067386262</v>
+        <v>23.28531709365529</v>
       </c>
       <c r="C2">
-        <v>10.18873005904503</v>
+        <v>14.1749269250258</v>
       </c>
       <c r="D2">
-        <v>4.691249409614826</v>
+        <v>3.289336811646736</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.18503826315785</v>
+        <v>23.92044974667141</v>
       </c>
       <c r="G2">
-        <v>32.59626513152126</v>
+        <v>33.75027063678051</v>
       </c>
       <c r="H2">
-        <v>14.79338156589239</v>
+        <v>10.28939392659172</v>
       </c>
       <c r="I2">
-        <v>22.52923164887649</v>
+        <v>15.48720540333992</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.67052432394813</v>
+        <v>8.109352963839436</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.20063336986486</v>
+        <v>11.26176715300241</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.01564520329605</v>
+        <v>21.68341031172502</v>
       </c>
       <c r="C3">
-        <v>9.842143837713504</v>
+        <v>13.39729075185791</v>
       </c>
       <c r="D3">
-        <v>4.691937392981539</v>
+        <v>3.294413346005786</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.05486253810532</v>
+        <v>22.85018576416663</v>
       </c>
       <c r="G3">
-        <v>32.30085534803344</v>
+        <v>32.00600540469627</v>
       </c>
       <c r="H3">
-        <v>14.81397825927603</v>
+        <v>10.09598349208996</v>
       </c>
       <c r="I3">
-        <v>22.5933391259103</v>
+        <v>15.31674393092226</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.64414220510856</v>
+        <v>7.811635623493292</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.26545740299296</v>
+        <v>11.48497558115168</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.66260863826682</v>
+        <v>20.64376461740416</v>
       </c>
       <c r="C4">
-        <v>9.621098179482944</v>
+        <v>12.89748714817918</v>
       </c>
       <c r="D4">
-        <v>4.692517565558451</v>
+        <v>3.297818069612772</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.98378304150948</v>
+        <v>22.19513699743314</v>
       </c>
       <c r="G4">
-        <v>32.13187000479413</v>
+        <v>30.93030418914061</v>
       </c>
       <c r="H4">
-        <v>14.83024514762112</v>
+        <v>9.985935138472044</v>
       </c>
       <c r="I4">
-        <v>22.63879947698332</v>
+        <v>15.23024048094196</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.63017164491799</v>
+        <v>7.628665536656601</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.30713762281366</v>
+        <v>11.62483759441964</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.51719350816915</v>
+        <v>20.20588599029533</v>
       </c>
       <c r="C5">
-        <v>9.529027829678416</v>
+        <v>12.68826373377489</v>
       </c>
       <c r="D5">
-        <v>4.692793921690373</v>
+        <v>3.299278536597885</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.95706519014462</v>
+        <v>21.92908203012686</v>
       </c>
       <c r="G5">
-        <v>32.06620014351142</v>
+        <v>30.49133815588355</v>
       </c>
       <c r="H5">
-        <v>14.83778195259861</v>
+        <v>9.943250885020003</v>
       </c>
       <c r="I5">
-        <v>22.65885150908445</v>
+        <v>15.19938641299889</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.62504262546203</v>
+        <v>7.554158182965915</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.32459636356965</v>
+        <v>11.68256711626944</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.49296104485675</v>
+        <v>20.13231473621559</v>
       </c>
       <c r="C6">
-        <v>9.513621777747391</v>
+        <v>12.65318958821064</v>
       </c>
       <c r="D6">
-        <v>4.692842229925111</v>
+        <v>3.299525478807547</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.95276504134843</v>
+        <v>21.88496830153453</v>
       </c>
       <c r="G6">
-        <v>32.05549061618748</v>
+        <v>30.41843008173597</v>
       </c>
       <c r="H6">
-        <v>14.83908819046463</v>
+        <v>9.936292795177103</v>
       </c>
       <c r="I6">
-        <v>22.66227312825355</v>
+        <v>15.19452349201214</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.62422512649681</v>
+        <v>7.541792596260767</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.32752402872409</v>
+        <v>11.69219821900392</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.6606534710065</v>
+        <v>20.63791693826836</v>
       </c>
       <c r="C7">
-        <v>9.619864442249963</v>
+        <v>12.89468785221255</v>
       </c>
       <c r="D7">
-        <v>4.692521130578217</v>
+        <v>3.297837469334628</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.98341358800148</v>
+        <v>22.19154481304325</v>
       </c>
       <c r="G7">
-        <v>32.1309713357448</v>
+        <v>30.92438577435406</v>
       </c>
       <c r="H7">
-        <v>14.83034311904924</v>
+        <v>9.98535077405333</v>
       </c>
       <c r="I7">
-        <v>22.6390637340317</v>
+        <v>15.22980680233151</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.63010018452916</v>
+        <v>7.627660348910877</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.3073711575149</v>
+        <v>11.62561314458879</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.38640570702853</v>
+        <v>22.74454576504573</v>
       </c>
       <c r="C8">
-        <v>10.07098252542673</v>
+        <v>13.91146525191662</v>
       </c>
       <c r="D8">
-        <v>4.691454042899666</v>
+        <v>3.291027829099011</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.13833176893217</v>
+        <v>23.55118693072117</v>
       </c>
       <c r="G8">
-        <v>32.4918825247119</v>
+        <v>33.15014269600923</v>
       </c>
       <c r="H8">
-        <v>14.7997304938801</v>
+        <v>10.22088396829497</v>
       </c>
       <c r="I8">
-        <v>22.55006622525195</v>
+        <v>15.42456243640581</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.66096775437101</v>
+        <v>8.006790879721819</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.22259580626435</v>
+        <v>11.33816303007288</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.74406074786492</v>
+        <v>26.4361870883405</v>
       </c>
       <c r="C9">
-        <v>10.88717231303919</v>
+        <v>15.72645514240497</v>
       </c>
       <c r="D9">
-        <v>4.690601853364161</v>
+        <v>3.279938480079268</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.51116305461703</v>
+        <v>26.22091545099547</v>
       </c>
       <c r="G9">
-        <v>33.29429532275172</v>
+        <v>37.457235231273</v>
       </c>
       <c r="H9">
-        <v>14.76852300151666</v>
+        <v>10.75284761517152</v>
       </c>
       <c r="I9">
-        <v>22.42422048515957</v>
+        <v>15.95756292009883</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.73898834357076</v>
+        <v>8.745157784080796</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.07118482948501</v>
+        <v>10.79546216026093</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.6905645565574</v>
+        <v>28.88841147916362</v>
       </c>
       <c r="C10">
-        <v>11.44154896410685</v>
+        <v>16.95005467818883</v>
       </c>
       <c r="D10">
-        <v>4.690717183824213</v>
+        <v>3.273166425515632</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.82533877005786</v>
+        <v>28.17068509690338</v>
       </c>
       <c r="G10">
-        <v>33.93610647365009</v>
+        <v>40.56689022455445</v>
       </c>
       <c r="H10">
-        <v>14.76327967339237</v>
+        <v>11.18758127462985</v>
       </c>
       <c r="I10">
-        <v>22.36181589656046</v>
+        <v>16.44999507444569</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.80668472958476</v>
+        <v>9.280322754357753</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.96889006112207</v>
+        <v>10.4076068769613</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.10814363129902</v>
+        <v>29.94935755349029</v>
       </c>
       <c r="C11">
-        <v>11.68331209941453</v>
+        <v>17.48303994738044</v>
       </c>
       <c r="D11">
-        <v>4.690927580117821</v>
+        <v>3.270390177986653</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.97654495538608</v>
+        <v>29.05336019910166</v>
       </c>
       <c r="G11">
-        <v>34.23816607066667</v>
+        <v>41.96754977784353</v>
       </c>
       <c r="H11">
-        <v>14.76475100661156</v>
+        <v>11.39511769705111</v>
       </c>
       <c r="I11">
-        <v>22.34002548104129</v>
+        <v>16.69756724068363</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.83966254058994</v>
+        <v>9.521554531943831</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.92427593401417</v>
+        <v>10.23307434639044</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.26426409299292</v>
+        <v>30.34342035030073</v>
       </c>
       <c r="C12">
-        <v>11.7733201068988</v>
+        <v>17.68150422986737</v>
       </c>
       <c r="D12">
-        <v>4.69102970481325</v>
+        <v>3.269383735865738</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.03495092990875</v>
+        <v>29.38691458974174</v>
       </c>
       <c r="G12">
-        <v>34.35388819800219</v>
+        <v>42.49588751692824</v>
       </c>
       <c r="H12">
-        <v>14.7658633851202</v>
+        <v>11.47513236488535</v>
       </c>
       <c r="I12">
-        <v>22.33272804118275</v>
+        <v>16.7948290056632</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.85245734662993</v>
+        <v>9.612547014702871</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.90765636064327</v>
+        <v>10.16721889348472</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.23073209924918</v>
+        <v>30.25889152164579</v>
       </c>
       <c r="C13">
-        <v>11.7540045009748</v>
+        <v>17.63891039977577</v>
       </c>
       <c r="D13">
-        <v>4.691006715949757</v>
+        <v>3.269598472888529</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.0223218535539</v>
+        <v>29.31510927532188</v>
       </c>
       <c r="G13">
-        <v>34.32890765554713</v>
+        <v>42.38219214893688</v>
       </c>
       <c r="H13">
-        <v>14.76559911515137</v>
+        <v>11.4578360284032</v>
       </c>
       <c r="I13">
-        <v>22.33425716030084</v>
+        <v>16.77372384869351</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.84968822642921</v>
+        <v>9.592966488437026</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.91122348064615</v>
+        <v>10.1813921564641</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.12102873387341</v>
+        <v>29.98193062475292</v>
       </c>
       <c r="C14">
-        <v>11.69074825274226</v>
+        <v>17.49943493402149</v>
       </c>
       <c r="D14">
-        <v>4.690935533474307</v>
+        <v>3.270306470152854</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.98132731472926</v>
+        <v>29.08081611122289</v>
       </c>
       <c r="G14">
-        <v>34.24766042692101</v>
+        <v>42.01105775829588</v>
       </c>
       <c r="H14">
-        <v>14.76483139304711</v>
+        <v>11.40167186123899</v>
       </c>
       <c r="I14">
-        <v>22.33940596525801</v>
+        <v>16.70549795708568</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.84070906948055</v>
+        <v>9.529047859424278</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.9229031311529</v>
+        <v>10.22765186650594</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.05356693342136</v>
+        <v>29.81128678788806</v>
       </c>
       <c r="C15">
-        <v>11.65179991630386</v>
+        <v>17.41356511018868</v>
       </c>
       <c r="D15">
-        <v>4.690894848462826</v>
+        <v>3.270746022710537</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.95636505804449</v>
+        <v>28.93721282074611</v>
       </c>
       <c r="G15">
-        <v>34.19806509183933</v>
+        <v>41.78345862484598</v>
       </c>
       <c r="H15">
-        <v>14.76443345888852</v>
+        <v>11.36745594138028</v>
       </c>
       <c r="I15">
-        <v>22.34268416255673</v>
+        <v>16.66416851935844</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.83524881863503</v>
+        <v>9.489848488444386</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.93009300666969</v>
+        <v>10.25601688973489</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.66300106279264</v>
+        <v>28.8179907947367</v>
       </c>
       <c r="C16">
-        <v>11.42553555500378</v>
+        <v>16.91474971595192</v>
       </c>
       <c r="D16">
-        <v>4.690706589798068</v>
+        <v>3.27335406666072</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.81562012329722</v>
+        <v>28.11290590303454</v>
       </c>
       <c r="G16">
-        <v>33.91655972485922</v>
+        <v>40.47506633202321</v>
       </c>
       <c r="H16">
-        <v>14.76326118686973</v>
+        <v>11.17421654161585</v>
       </c>
       <c r="I16">
-        <v>22.3633731846789</v>
+        <v>16.43430044170222</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.80457287949266</v>
+        <v>9.264509537682022</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.97184422813099</v>
+        <v>10.41904813768569</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.4199697077158</v>
+        <v>28.19476276437901</v>
       </c>
       <c r="C17">
-        <v>11.2840268184839</v>
+        <v>16.60270773428439</v>
       </c>
       <c r="D17">
-        <v>4.690631364922866</v>
+        <v>3.275032598216856</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.73136945566542</v>
+        <v>27.6060484285866</v>
       </c>
       <c r="G17">
-        <v>33.74637163897638</v>
+        <v>39.66876978617419</v>
       </c>
       <c r="H17">
-        <v>14.76353038359522</v>
+        <v>11.05818650000244</v>
       </c>
       <c r="I17">
-        <v>22.37775903907767</v>
+        <v>16.2994081447006</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.78630831366932</v>
+        <v>9.12567242524144</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.99794814454604</v>
+        <v>10.51952414840896</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.27896904236733</v>
+        <v>27.83115106956816</v>
       </c>
       <c r="C18">
-        <v>11.20165562840855</v>
+        <v>16.42100174040101</v>
       </c>
       <c r="D18">
-        <v>4.690602978107441</v>
+        <v>3.27602660239005</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.68369344462</v>
+        <v>27.31411527568392</v>
       </c>
       <c r="G18">
-        <v>33.64944126100711</v>
+        <v>39.2036948864442</v>
       </c>
       <c r="H18">
-        <v>14.76404820209205</v>
+        <v>10.99236770722069</v>
       </c>
       <c r="I18">
-        <v>22.38665412066067</v>
+        <v>16.22403252414745</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.77600888413874</v>
+        <v>9.04560973336641</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.01314324907522</v>
+        <v>10.57749694344483</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.23102441461011</v>
+        <v>27.70714977249541</v>
       </c>
       <c r="C19">
-        <v>11.17359940960717</v>
+        <v>16.35909583344161</v>
       </c>
       <c r="D19">
-        <v>4.690595930487219</v>
+        <v>3.276368034831164</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.66768690125643</v>
+        <v>27.21520600316383</v>
       </c>
       <c r="G19">
-        <v>33.61679012160892</v>
+        <v>39.04600602895126</v>
       </c>
       <c r="H19">
-        <v>14.76428584284612</v>
+        <v>10.9702398356042</v>
       </c>
       <c r="I19">
-        <v>22.38977228027185</v>
+        <v>16.19888750799696</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.77255723754317</v>
+        <v>9.018467649333559</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.01831914687291</v>
+        <v>10.59715785316419</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.44596767028886</v>
+        <v>28.26163810155787</v>
       </c>
       <c r="C20">
-        <v>11.29919233069961</v>
+        <v>16.63615550047896</v>
       </c>
       <c r="D20">
-        <v>4.690637834522581</v>
+        <v>3.274850953825951</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.7402573824247</v>
+        <v>27.66004664680126</v>
       </c>
       <c r="G20">
-        <v>33.76439018465602</v>
+        <v>39.75473818123589</v>
       </c>
       <c r="H20">
-        <v>14.7634641536421</v>
+        <v>11.07044289377763</v>
       </c>
       <c r="I20">
-        <v>22.37616335782589</v>
+        <v>16.3135379353793</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.78823135079677</v>
+        <v>9.140473638430198</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.99515063314381</v>
+        <v>10.50880977253974</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.15330679064618</v>
+        <v>30.06348829812711</v>
       </c>
       <c r="C21">
-        <v>11.70937032415984</v>
+        <v>17.54049326515495</v>
       </c>
       <c r="D21">
-        <v>4.690955834192908</v>
+        <v>3.270097285329453</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.99333762660835</v>
+        <v>29.14965291959729</v>
       </c>
       <c r="G21">
-        <v>34.2714892892786</v>
+        <v>42.12012487418355</v>
       </c>
       <c r="H21">
-        <v>14.76504182009383</v>
+        <v>11.41812978147625</v>
       </c>
       <c r="I21">
-        <v>22.33786770149807</v>
+        <v>16.72544129168083</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.84333819645577</v>
+        <v>9.547832230533798</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.91946508622625</v>
+        <v>10.21405816636692</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.60383813347481</v>
+        <v>31.19633149981958</v>
       </c>
       <c r="C22">
-        <v>11.96843865739739</v>
+        <v>18.11193830844037</v>
       </c>
       <c r="D22">
-        <v>4.69129441566892</v>
+        <v>3.267252883301436</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.16540631893333</v>
+        <v>30.11914626162056</v>
       </c>
       <c r="G22">
-        <v>34.61065687839897</v>
+        <v>43.65406385119496</v>
       </c>
       <c r="H22">
-        <v>14.76930915128046</v>
+        <v>11.65368291681324</v>
       </c>
       <c r="I22">
-        <v>22.31840275742044</v>
+        <v>17.01516684112043</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.88113855054364</v>
+        <v>9.811976747212334</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.87160152333675</v>
+        <v>10.02277910331348</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.36449866477936</v>
+        <v>30.59575451081518</v>
       </c>
       <c r="C23">
-        <v>11.83100596563115</v>
+        <v>17.80872523778899</v>
       </c>
       <c r="D23">
-        <v>4.691101829454251</v>
+        <v>3.268746483036255</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.07297529107569</v>
+        <v>29.60209151747249</v>
       </c>
       <c r="G23">
-        <v>34.42896569793659</v>
+        <v>42.83646270393534</v>
       </c>
       <c r="H23">
-        <v>14.76673537327058</v>
+        <v>11.52719472099665</v>
       </c>
       <c r="I23">
-        <v>22.32828085445833</v>
+        <v>16.85861724535999</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.86080290626393</v>
+        <v>9.671198063414106</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.8970011134452</v>
+        <v>10.12475698589997</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.43421796347139</v>
+        <v>28.23142031139652</v>
       </c>
       <c r="C24">
-        <v>11.29233916380678</v>
+        <v>16.6210409594308</v>
       </c>
       <c r="D24">
-        <v>4.690634863279232</v>
+        <v>3.274932985021509</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.73623677743236</v>
+        <v>27.63563570903781</v>
       </c>
       <c r="G24">
-        <v>33.75624114750281</v>
+        <v>39.71587661212283</v>
       </c>
       <c r="H24">
-        <v>14.76349296530075</v>
+        <v>11.06489901231992</v>
       </c>
       <c r="I24">
-        <v>22.37688282047963</v>
+        <v>16.30714308938078</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.78736131874647</v>
+        <v>9.133782765009819</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.99641480349179</v>
+        <v>10.51365309179757</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.38500817758171</v>
+        <v>25.48375554391462</v>
       </c>
       <c r="C25">
-        <v>10.67409474020449</v>
+        <v>15.25475869546045</v>
       </c>
       <c r="D25">
-        <v>4.690701133481418</v>
+        <v>3.28269766546239</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.4030863295341</v>
+        <v>25.49993924072552</v>
       </c>
       <c r="G25">
-        <v>33.06762456633503</v>
+        <v>36.30062727127941</v>
       </c>
       <c r="H25">
-        <v>14.77386652094835</v>
+        <v>10.60130376072086</v>
       </c>
       <c r="I25">
-        <v>22.45301311293609</v>
+        <v>15.79625297469503</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.71603694442111</v>
+        <v>8.546435025182184</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.11056748786224</v>
+        <v>10.94022370829287</v>
       </c>
       <c r="O25">
         <v>0</v>
